--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -92,13 +92,61 @@
   </si>
   <si>
     <t>10:52:34</t>
+  </si>
+  <si>
+    <t>21120</t>
+  </si>
+  <si>
+    <t>21:31:43</t>
+  </si>
+  <si>
+    <t>2112025</t>
+  </si>
+  <si>
+    <t>Shonak</t>
+  </si>
+  <si>
+    <t>21:34:21</t>
+  </si>
+  <si>
+    <t>21:34:31</t>
+  </si>
+  <si>
+    <t>21120SDCE</t>
+  </si>
+  <si>
+    <t>RonakASASASA</t>
+  </si>
+  <si>
+    <t>21:36:14</t>
+  </si>
+  <si>
+    <t>21:40:54</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>21:42:47</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>John doe</t>
+  </si>
+  <si>
+    <t>21:43:27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -129,6 +177,10 @@
       <b/>
       <color rgb="FFf97316"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FF10b981"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -155,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +226,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="C8" sqref="C8"/>
@@ -753,6 +808,146 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
